--- a/spliced/struggle/2023-04-06_18-36-53/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-36-53/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1368236541748047</v>
+        <v>-0.1967945098876953</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4095092415809631</v>
+        <v>-0.0881298780441284</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2153286337852478</v>
+        <v>-0.4354097247123718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0151729583740234</v>
+        <v>0.3726930618286133</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2465144991874694</v>
+        <v>0.3928739428520202</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0501556992530822</v>
+        <v>-0.1955753564834594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.021584510803223</v>
+        <v>0.1368236541748047</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.973333358764648</v>
+        <v>0.4095092415809631</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.84404182434082</v>
+        <v>-0.2153286337852478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.214876651763916</v>
+        <v>-0.0151729583740234</v>
       </c>
       <c r="B5" t="n">
-        <v>2.617048025131226</v>
+        <v>0.2465144991874694</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.977540016174316</v>
+        <v>0.0501556992530822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.946963310241699</v>
+        <v>2.021584510803223</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.464599609375</v>
+        <v>-1.973333358764648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2086009979248047</v>
+        <v>-6.84404182434082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.311498880386352</v>
+        <v>2.214876651763916</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6331030130386353</v>
+        <v>2.617048025131226</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9298524856567384</v>
+        <v>-4.977540016174316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.7284626960754395</v>
+        <v>-4.946963310241699</v>
       </c>
       <c r="B8" t="n">
-        <v>1.614851474761963</v>
+        <v>-1.464599609375</v>
       </c>
       <c r="C8" t="n">
-        <v>4.958660125732422</v>
+        <v>0.2086009979248047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-11.12845420837402</v>
+        <v>-1.311498880386352</v>
       </c>
       <c r="B9" t="n">
-        <v>3.947137832641602</v>
+        <v>-0.6331030130386353</v>
       </c>
       <c r="C9" t="n">
-        <v>8.631446838378906</v>
+        <v>-0.9298524856567384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.936349868774414</v>
+        <v>-0.7284626960754395</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3100541830062866</v>
+        <v>1.614851474761963</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.833556175231934</v>
+        <v>4.958660125732422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.618814945220947</v>
+        <v>-11.12845420837402</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.745197772979736</v>
+        <v>3.947137832641602</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.147943019866944</v>
+        <v>8.631446838378906</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.717551708221436</v>
+        <v>5.936349868774414</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5804144740104675</v>
+        <v>-0.3100541830062866</v>
       </c>
       <c r="C12" t="n">
-        <v>2.004154682159424</v>
+        <v>-5.833556175231934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.254782676696777</v>
+        <v>-1.618814945220947</v>
       </c>
       <c r="B13" t="n">
-        <v>2.873416900634766</v>
+        <v>-2.745197772979736</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.692718505859375</v>
+        <v>-3.147943019866944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-8.337739944458008</v>
+        <v>-3.717551708221436</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.719696521759033</v>
+        <v>-0.5804144740104675</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.337332725524902</v>
+        <v>2.004154682159424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.585304737091064</v>
+        <v>-2.254782676696777</v>
       </c>
       <c r="B15" t="n">
-        <v>1.517187714576721</v>
+        <v>2.873416900634766</v>
       </c>
       <c r="C15" t="n">
-        <v>7.499239444732666</v>
+        <v>-8.692718505859375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.441369771957397</v>
+        <v>-8.337739944458008</v>
       </c>
       <c r="B16" t="n">
-        <v>1.091274261474609</v>
+        <v>-3.719696521759033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2500591278076172</v>
+        <v>-4.337332725524902</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.391006469726562</v>
+        <v>1.585304737091064</v>
       </c>
       <c r="B17" t="n">
-        <v>4.326517105102539</v>
+        <v>1.517187714576721</v>
       </c>
       <c r="C17" t="n">
-        <v>1.920782089233398</v>
+        <v>7.499239444732666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-8.625715255737305</v>
+        <v>-2.441369771957397</v>
       </c>
       <c r="B18" t="n">
-        <v>1.131956696510315</v>
+        <v>1.091274261474609</v>
       </c>
       <c r="C18" t="n">
-        <v>10.77142906188965</v>
+        <v>0.2500591278076172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.745645046234131</v>
+        <v>-2.391006469726562</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.043209075927734</v>
+        <v>4.326517105102539</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.123822450637817</v>
+        <v>1.920782089233398</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9841413497924804</v>
+        <v>-8.625715255737305</v>
       </c>
       <c r="B20" t="n">
-        <v>2.591554641723633</v>
+        <v>1.131956696510315</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.520083427429199</v>
+        <v>10.77142906188965</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-2.745645046234131</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.043209075927734</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.123822450637817</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.9841413497924804</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.591554641723633</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.520083427429199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-5.384963035583496</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>1.437288880348206</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>-2.568338394165039</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.6416101455688477</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1077315807342529</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.572567462921143</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.180892944335938</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.3624088764190674</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.944910764694214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.6099348068237305</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0995303392410278</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.559979677200317</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.7382268905639648</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5965696573257446</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3601601719856262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1256790161132812</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4359270334243774</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.5883067846298218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.1187114715576171</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2241333723068237</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.9467962980270386</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1263256072998047</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5689128637313843</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.7026804089546204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.1413173675537109</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4839025735855102</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0290583968162536</v>
       </c>
     </row>
   </sheetData>
